--- a/notes/scientificnotation/scientificnotation.xlsx
+++ b/notes/scientificnotation/scientificnotation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF46897-60E3-4DA3-BD0A-AD7D846A933C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081CF6A6-6301-4464-B925-C9F0E0C1A83D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Integers" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>10^4</t>
   </si>
@@ -105,6 +105,15 @@
   </si>
   <si>
     <t xml:space="preserve">Divide by 20 </t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>10^Precision</t>
+  </si>
+  <si>
+    <t>base x 10^Precision</t>
   </si>
 </sst>
 </file>
@@ -114,11 +123,11 @@
   <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
-    <numFmt numFmtId="170" formatCode="#,##0.000000000"/>
-    <numFmt numFmtId="171" formatCode="#,##0.000000"/>
-    <numFmt numFmtId="173" formatCode="#,##0.00000000000_);[Red]\(#,##0.00000000000\)"/>
-    <numFmt numFmtId="174" formatCode="0.000000000000000"/>
-    <numFmt numFmtId="175" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000000000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00000000000_);[Red]\(#,##0.00000000000\)"/>
+    <numFmt numFmtId="169" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="170" formatCode="0.0000000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -160,12 +169,12 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1073,7 +1082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8798649-3A87-4212-8AB5-82733B9FDE7A}">
   <dimension ref="C2:AZ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB19" workbookViewId="0">
+    <sheetView topLeftCell="AB19" workbookViewId="0">
       <selection activeCell="AZ26" sqref="AZ26"/>
     </sheetView>
   </sheetViews>
@@ -1704,7 +1713,7 @@
         <v>1.2</v>
       </c>
       <c r="F25">
-        <f t="shared" ref="F25:Q25" si="3">+F23/F24</f>
+        <f t="shared" ref="F25:P25" si="3">+F23/F24</f>
         <v>1.5</v>
       </c>
       <c r="G25">
@@ -2017,14 +2026,46 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA12BD44-8E7B-425F-9893-89E78E2C052F}">
-  <dimension ref="A1"/>
+  <dimension ref="E3:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="D4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>0.123456</v>
+      </c>
+    </row>
+    <row r="5" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <f>10^F5</f>
+        <v>1000000</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <f>+E7*E3</f>
+        <v>123456</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/notes/scientificnotation/scientificnotation.xlsx
+++ b/notes/scientificnotation/scientificnotation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081CF6A6-6301-4464-B925-C9F0E0C1A83D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FF07D3-85D5-4EB2-B591-FD9A9A504D7A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
   <si>
     <t>10^4</t>
   </si>
@@ -114,6 +114,21 @@
   </si>
   <si>
     <t>base x 10^Precision</t>
+  </si>
+  <si>
+    <t>DivideBy10^magnitude</t>
+  </si>
+  <si>
+    <t>Exponent Should Be -1</t>
+  </si>
+  <si>
+    <t>Sicentific notaion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current Magnitude - Original Precision </t>
+  </si>
+  <si>
+    <t>Exponent should be -5</t>
   </si>
 </sst>
 </file>
@@ -129,9 +144,16 @@
     <numFmt numFmtId="169" formatCode="0.000000000000000"/>
     <numFmt numFmtId="170" formatCode="0.0000000000000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -158,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -175,6 +197,9 @@
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2026,46 +2051,430 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA12BD44-8E7B-425F-9893-89E78E2C052F}">
-  <dimension ref="E3:G9"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="D4:E4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E3">
+    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15">
+        <v>0.123</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="15">
+        <v>3.4600000000000001E-5</v>
+      </c>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+    </row>
+    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+    </row>
+    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14">
         <v>0.123456</v>
       </c>
-    </row>
-    <row r="5" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="F5">
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14">
+        <v>3.4567000000000003E-5</v>
+      </c>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+    </row>
+    <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14">
         <v>6</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E7">
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14">
+        <v>9</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14">
+        <v>5</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14">
+        <v>8</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14">
         <f>10^F5</f>
         <v>1000000</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="F7" s="14"/>
+      <c r="G7" s="16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E9">
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14">
+        <f>10^M5</f>
+        <v>1000000000</v>
+      </c>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+    </row>
+    <row r="9" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14">
         <f>+E7*E3</f>
         <v>123456</v>
       </c>
-      <c r="G9" t="s">
+      <c r="F9" s="14"/>
+      <c r="G9" s="14" t="s">
         <v>29</v>
       </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14">
+        <f>L3*(10^M5)</f>
+        <v>34567</v>
+      </c>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14">
+        <v>0</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14">
+        <v>5</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14">
+        <v>4</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+    </row>
+    <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14">
+        <f>+E9/(10^F6)</f>
+        <v>1.2345600000000001</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14">
+        <f>+L9/10^M11</f>
+        <v>3.4567000000000001</v>
+      </c>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+    </row>
+    <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+    </row>
+    <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14">
+        <f>+F11-F5</f>
+        <v>-1</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14">
+        <f>+M11-M5</f>
+        <v>-5</v>
+      </c>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+    </row>
+    <row r="19" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+    </row>
+    <row r="20" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+    </row>
+    <row r="21" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N21" s="14"/>
+    </row>
+    <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N22" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/notes/scientificnotation/scientificnotation.xlsx
+++ b/notes/scientificnotation/scientificnotation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FF07D3-85D5-4EB2-B591-FD9A9A504D7A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15623E46-AED8-425C-9A58-2C069E7B77AD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Integers" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="BinaryExponents" sheetId="3" r:id="rId3"/>
     <sheet name="BinaryExp-2" sheetId="4" r:id="rId4"/>
     <sheet name="BinaryExp-3" sheetId="5" r:id="rId5"/>
+    <sheet name="Multiply" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>10^4</t>
   </si>
@@ -129,6 +130,33 @@
   </si>
   <si>
     <t>Exponent should be -5</t>
+  </si>
+  <si>
+    <t>a^x * b^y</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>correct answer</t>
+  </si>
+  <si>
+    <t>x+y</t>
+  </si>
+  <si>
+    <t>a*b</t>
+  </si>
+  <si>
+    <t>(a*b)^x+y</t>
   </si>
 </sst>
 </file>
@@ -2053,7 +2081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA12BD44-8E7B-425F-9893-89E78E2C052F}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -2477,4 +2505,116 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C71947-B5CB-421F-8928-074E4071C279}">
+  <dimension ref="C4:M15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <f>(E7^F7)*(H7^I7)</f>
+        <v>1296</v>
+      </c>
+      <c r="I11">
+        <f>+E7*H7</f>
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <v>7</v>
+      </c>
+      <c r="M11">
+        <f>I11^K11</f>
+        <v>279936</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="K12">
+        <v>8</v>
+      </c>
+      <c r="M12">
+        <f>I12^K12</f>
+        <v>1679616</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <f>+E7^F7</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <f>+H7^I7</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <f>+E13*E14</f>
+        <v>1296</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>